--- a/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(Applyクラス) .xlsx
+++ b/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(Applyクラス) .xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Kintai\3.勤怠管理アプリ\05_内部仕様書\クラス図\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\AHKGitProject\3.勤怠管理アプリ\05_内部仕様書\クラス図\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17076" windowHeight="10488" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17076" windowHeight="10488" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Applyクラス!$A$1:$K$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$E$38</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -290,6 +290,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -298,15 +307,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -367,7 +367,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1057"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1063"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -407,15 +407,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>125956</xdr:colOff>
+      <xdr:colOff>46782</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>198119</xdr:rowOff>
+      <xdr:rowOff>53339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>376483</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>45721</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -430,10 +430,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="125956" y="1569719"/>
-          <a:ext cx="7135904" cy="4297681"/>
-          <a:chOff x="462979" y="1513337"/>
-          <a:chExt cx="2224188" cy="1903919"/>
+          <a:off x="46782" y="1424939"/>
+          <a:ext cx="7119121" cy="6393182"/>
+          <a:chOff x="464427" y="1790148"/>
+          <a:chExt cx="2218957" cy="2916642"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -449,8 +449,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="462979" y="1513337"/>
-            <a:ext cx="2218030" cy="450549"/>
+            <a:off x="465354" y="1790148"/>
+            <a:ext cx="2218030" cy="162036"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -484,12 +484,15 @@
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Apply</a:t>
+            </a:r>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
@@ -515,7 +518,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="464427" y="1955622"/>
-            <a:ext cx="2222740" cy="1461634"/>
+            <a:ext cx="2213240" cy="2751168"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -602,6 +605,44 @@
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>@NotNull(message ="</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>始業時間を入力してください</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>")</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>private  IInteger  startWork ;</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -616,6 +657,282 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
+              <a:t>@NotNull(message ="</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>終業時間を入力してください</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>")</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>private Integer endWork ;</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>@NotNull(message ="</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>休憩開始時間を入力してください</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>")</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>private Integer startBreak ;</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>@NotNull(message ="</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>休憩終了時間を入力してください</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>")</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>private Integer endBreak ;</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>@NotNull(message ="</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>申請したい年を入力してください</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>")</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>private Integer year; </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>@NotNull(message ="</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>申請したい月を入力してください</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>")</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>private Integer month </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>private Integer date;</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>private Boolean status;</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>@OneToMany(mappedBy = "attendance")</a:t>
             </a:r>
           </a:p>
@@ -728,49 +1045,6 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>private Integer ceated_time;            //(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>申請した時間</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>)</a:t>
-            </a:r>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
@@ -1135,285 +1409,255 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -1421,6 +1665,36 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1432,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(Applyクラス) .xlsx
+++ b/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(Applyクラス) .xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\AHKG\3.勤怠管理アプリ\05_内部仕様書\クラス図\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\AHKGitProject\3.勤怠管理アプリ\05_内部仕様書\クラス図\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17070" windowHeight="10485" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17076" windowHeight="10488" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Applyクラス!$A$1:$K$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$E$38</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -290,6 +290,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -298,15 +307,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -349,10 +349,10 @@
           <xdr:rowOff>1905</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>211455</xdr:rowOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>929640</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>1905</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -367,7 +367,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1068"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1071"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -382,7 +382,7 @@
           <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="1905"/>
-              <a:ext cx="6115050" cy="676275"/>
+              <a:ext cx="6103620" cy="685800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -430,8 +430,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="46782" y="1472564"/>
-          <a:ext cx="7121026" cy="6659882"/>
+          <a:off x="46782" y="1424939"/>
+          <a:ext cx="7119121" cy="6393182"/>
           <a:chOff x="464427" y="1790148"/>
           <a:chExt cx="2218957" cy="2916642"/>
         </a:xfrm>
@@ -592,7 +592,23 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>private Integer id;</a:t>
+              <a:t>id :</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Integer </a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -611,7 +627,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>private  Integer  startWork ;</a:t>
+              <a:t>startWork :  Integer  </a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -630,7 +646,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>private Integer endWork ;</a:t>
+              <a:t>endWork : Integer </a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -649,7 +665,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>private Integer startBreak ;</a:t>
+              <a:t>startBreak :Integer </a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -668,7 +684,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>private Integer endBreak ;</a:t>
+              <a:t>endBreak : Integer </a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -714,11 +730,16 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>private Integer year; </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
+              <a:t>year</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> : Integer </a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -727,44 +748,6 @@
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>@NotNull(message ="</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>ご覧になりたい月を入力してください</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>")</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>private Integer month </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -773,6 +756,44 @@
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>@NotNull(message ="</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ご覧になりたい月を入力してください</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>")</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>month :Integer </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -781,17 +802,6 @@
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>private Integer date;</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -806,7 +816,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>private Boolean status;</a:t>
+              <a:t>date:private Integer </a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -825,6 +835,38 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
+              <a:t>status:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> private Boolean </a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>@OneToMany(mappedBy = "attendance")</a:t>
             </a:r>
           </a:p>
@@ -836,7 +878,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>private List&lt;Attendance&gt; attendances;</a:t>
+              <a:t>attendancesprivate List&lt;Attendance&gt; </a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
@@ -922,7 +964,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>private   User user;                                            //   user_id    FK</a:t>
+              <a:t>user:private   User                                        //   user_id    FK</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
@@ -1255,16 +1297,16 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="12.09765625" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="12.09765625" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1281,7 +1323,7 @@
         <v>44463</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
@@ -1292,294 +1334,264 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -1587,6 +1599,36 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1598,19 +1640,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="8" width="8.875" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="5.59765625" customWidth="1"/>
+    <col min="2" max="8" width="8.8984375" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>

--- a/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(Applyクラス) .xlsx
+++ b/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(Applyクラス) .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17076" windowHeight="10488" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17076" windowHeight="10488" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
@@ -290,6 +290,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -298,15 +307,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -367,7 +367,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1071"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1073"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -816,7 +816,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>date:private Integer </a:t>
+              <a:t>date: Integer </a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -843,7 +843,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> private Boolean </a:t>
+              <a:t> Boolean </a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
@@ -878,7 +878,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>attendancesprivate List&lt;Attendance&gt; </a:t>
+              <a:t>attendances:List&lt;Attendance&gt; </a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
@@ -964,7 +964,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>user:private   User                                        //   user_id    FK</a:t>
+              <a:t>user:   User                                        //   user_id    FK</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
@@ -1343,255 +1343,285 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -1599,36 +1629,6 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1640,7 +1640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>

--- a/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(Applyクラス) .xlsx
+++ b/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(Applyクラス) .xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\AHKGitProject\3.勤怠管理アプリ\05_内部仕様書\クラス図\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Kintai\3.勤怠管理アプリ\05_内部仕様書\クラス図\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -290,6 +290,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -298,15 +307,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -367,7 +367,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1073"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1075"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -592,7 +592,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>id :</a:t>
+              <a:t> - id :</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
@@ -627,7 +627,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>startWork :  Integer  </a:t>
+              <a:t>- startWork :  Integer  </a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -646,7 +646,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>endWork : Integer </a:t>
+              <a:t>- endWork : Integer </a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -665,7 +665,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>startBreak :Integer </a:t>
+              <a:t>- startBreak :Integer </a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -684,7 +684,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>endBreak : Integer </a:t>
+              <a:t>- endBreak : Integer </a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -730,7 +730,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>year</a:t>
+              <a:t>- year</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
@@ -789,7 +789,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>month :Integer </a:t>
+              <a:t>- month :Integer </a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -816,7 +816,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>date: Integer </a:t>
+              <a:t>- date: Integer </a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -835,7 +835,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>status:</a:t>
+              <a:t>- status:</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
@@ -878,7 +878,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>attendances:List&lt;Attendance&gt; </a:t>
+              <a:t>- attendances:List&lt;Attendance&gt; </a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
@@ -964,7 +964,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>user:   User                                        //   user_id    FK</a:t>
+              <a:t>- user:   User                                        //   user_id    FK</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
@@ -1343,285 +1343,255 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -1629,6 +1599,36 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1640,7 +1640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>

--- a/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(Applyクラス) .xlsx
+++ b/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(Applyクラス) .xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Kintai\3.勤怠管理アプリ\05_内部仕様書\クラス図\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\AHKGitProject\3.勤怠管理アプリ\05_内部仕様書\クラス図\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -290,6 +290,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -298,15 +307,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -367,7 +367,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1075"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1076"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1343,255 +1343,285 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -1599,36 +1629,6 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1640,7 +1640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
